--- a/biology/Zoologie/Furnarius/Furnarius.xlsx
+++ b/biology/Zoologie/Furnarius/Furnarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Furnarius est un genre qui regroupent les six espèces de fourniers  (en espagnol, « Horneros »). Ses membres sont de petits passereaux brun roux, endémiques de l'Amérique du Sud. Ils sont appelés ainsi parce qu'ils construisent un nid en forme de four (« horno »)
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces et distribution géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ces espèces se rencontrent dans toute l'Amérique du Sud à l'exception du Chili et de la Patagonie argentine. D'après la classification de référence du Congrès ornithologique international (ordre phylogénique) :
 Furnarius minor (Pelzeln, 1858) — Petit Fournier — Amazonie colombienne, de l'Équateur, au Pérou et à une partie du Brésil (jusqu'au Rio Solimões).
@@ -549,7 +563,9 @@
           <t>Une particularité : leur nid</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction du nid est réalisée par le couple, en moyenne en une semaine. Il est construit à partir d'éléments divers (boue, poils, paille, racines, matières fécales, etc.) à l'aide de leur bec aussi pour former le « mortier » et pour le déposer à l'endroit adéquat.
 La régularité de la forme des nids pour une espèce donnée fait penser qu'il s'agit d'un comportement inné génétiquement.
@@ -585,7 +601,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le couple reste stable toute la vie. Dès l'arrivée du printemps la chambre du nid hébergera une moyenne de quatre petits œufs, qui seront incubés par les deux parents de manière alternative, durant 15 jours. Lorsque l'un des membres du couple revient au nid, il s'annonce par son chant bien connu afin que son conjoint sorte.
 </t>
@@ -618,10 +636,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Des noms vernaculaires variés
-On les appelle aussi Tiluchi en Bolivie, casero dans les provinces de Tucumán et d'Entre Ríos, ou encore caserito ou alonsito.
-Un oiseau national
-Le fournier roux (Furnarius rufus), espèce la plus commune, a été nommé oiseau national de l'Argentine, pays dans lequel on le trouve en abondance. Il y habite aussi bien à la campagne que dans les villes où il se montre peu craintif.
+          <t>Des noms vernaculaires variés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On les appelle aussi Tiluchi en Bolivie, casero dans les provinces de Tucumán et d'Entre Ríos, ou encore caserito ou alonsito.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Furnarius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Furnarius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Relations avec l'Homme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Un oiseau national</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fournier roux (Furnarius rufus), espèce la plus commune, a été nommé oiseau national de l'Argentine, pays dans lequel on le trouve en abondance. Il y habite aussi bien à la campagne que dans les villes où il se montre peu craintif.
 </t>
         </is>
       </c>
